--- a/data_raw/MSAT_dict.xlsx
+++ b/data_raw/MSAT_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hake Home PC\Dropbox\Uni Oldenburg\#3 - RStudio dateien\#4 - MSAT - main test R script\MSA\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED741837-5A5A-42F2-8457-7C199CEBF2D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B39657F-6D4D-46A0-8B49-EEE3AE680181}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>key</t>
   </si>
@@ -31,9 +31,6 @@
     <t>EN</t>
   </si>
   <si>
-    <t>RU</t>
-  </si>
-  <si>
     <t>WELCOME</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
     <t>Dein Browser unterstützt kein Audio. Dieser Test funktioniert nicht ohne Audio, sorry!</t>
   </si>
   <si>
-    <t>Bitte höre dir die folgenden Musikausschnitte an und entscheide, welche sich **{{emotion}}**  anhörte. Wähle 1 für den Ausschnitt vor dem Summton und 2 für den Ausschnitt danach.</t>
-  </si>
-  <si>
     <t>Bitte eine Option auswählen.</t>
   </si>
   <si>
@@ -148,9 +142,6 @@
     <t>Your browser doesn't support audio. This test won't work without audio, sorry!</t>
   </si>
   <si>
-    <t>Please listen to the following clips and select which one sounds **{{emotion}}** to you. Select 1 for the clip heard before the buzzer, or 2 for the clip heard after the buzzer.</t>
-  </si>
-  <si>
     <t>Please select one option.</t>
   </si>
   <si>
@@ -181,12 +172,6 @@
     <t>Continue</t>
   </si>
   <si>
-    <t>You have completed the Emotion Discrimination Test.</t>
-  </si>
-  <si>
-    <t>Emotion Discrimination Test</t>
-  </si>
-  <si>
     <t>You answered {{num_correct}} out of {{num_question}} questions correctly.</t>
   </si>
   <si>
@@ -196,182 +181,52 @@
     <t>Score</t>
   </si>
   <si>
-    <t>Предлагаем Вам Тест на распознавание эмоций</t>
-  </si>
-  <si>
-    <t>В каждом задании Вы услышите две разные версии одной мелодии; эти версии различаются по выражаемым эмоциям. Ваша задача определить выражаемые эмоции в каждой версии, выбрав ту версию мелодии, которая, по Вашему мнению, в большей степени выражает эмоцию, представленную в вопросе к заданию.</t>
-  </si>
-  <si>
-    <t>Вопрос {{num_question}} из {{test_length}}</t>
-  </si>
-  <si>
-    <t>Ваш браузер не поддерживает аудио. Этот тест не будет работать без аудио-поддержки, извините!</t>
-  </si>
-  <si>
-    <t>Пожалуйста, прослушайте следующие мелодии и выберите ту, которая звучит **{{emotion}}** по Вашему мнению. Выберите 1 для мелодии, услышанной до сигнала гудка, или 2 для мелодии, услышанной после сигнала гудка.</t>
-  </si>
-  <si>
-    <t>Пожалуйста, выберите один вариант.</t>
-  </si>
-  <si>
-    <t>Поздравляем!</t>
-  </si>
-  <si>
-    <t>Вы правильно определили **{{accuracy}} %** эмоций.</t>
-  </si>
-  <si>
-    <t>агрессивнее</t>
-  </si>
-  <si>
-    <t>веселее</t>
-  </si>
-  <si>
-    <t>нежнее</t>
-  </si>
-  <si>
-    <t>печальнее</t>
-  </si>
-  <si>
-    <t>Пожалуйста, введите Ваш ID.</t>
-  </si>
-  <si>
-    <t>Введен некорректный ID. Пожалуйста, попробуйте еще раз.</t>
-  </si>
-  <si>
-    <t>Продолжайте</t>
-  </si>
-  <si>
-    <t>Вы завершили Тест на распознавание эмоций.</t>
-  </si>
-  <si>
-    <t>Тест на распознавание эмоций.</t>
-  </si>
-  <si>
-    <t>Вы ответили на {{num_correct}} из {{num_question}} вопросов правильно.</t>
-  </si>
-  <si>
-    <t>Ваш балл</t>
-  </si>
-  <si>
-    <t>Балл</t>
-  </si>
-  <si>
-    <t>Du hast den Emotionen-Unterscheidungstest erfolgreich beendet.</t>
-  </si>
-  <si>
-    <t>Emotionen-Unterscheidungstest</t>
-  </si>
-  <si>
-    <t>NL</t>
-  </si>
-  <si>
-    <t>Welkom bij de 
-Emotieherkenningstest!</t>
-  </si>
-  <si>
-    <t>Deze test meet uw vermogen om de emotie in een melodie te herkennen. U hoort twee versies van een melodie die verschillen in emotionele lading. Het is uw taak om de melodie te kiezen die het dichtst bij de emotionele lading komt die gevraagd wordt. \\ Luister naar beide melodieën voordat u een beslissing neemt. Als u het antwoord niet weet, selecteer dan uw beste inschatting. U kunt hetzelfde antwoord meerdere keren achter elkaar kiezen.</t>
-  </si>
-  <si>
-    <t>Vraag {{num_question}} van {{test_length}}</t>
-  </si>
-  <si>
-    <t>Uw browser ondersteunt geen audio. Deze test werkt niet zonder audio, sorry!</t>
-  </si>
-  <si>
-    <t>Luister naar de volgende geluidsfragmenten en selecteer welk fragment u het meest **{{emotion}}** in de oren klinkt. Selcteer 1 voor het geluidsfragment vóór de zoemer, of selecteer 2 voor het geluidsfragment na de zoemer.</t>
-  </si>
-  <si>
-    <t>Selecteer één optie.</t>
-  </si>
-  <si>
-    <t>Gefeliciteerd!</t>
-  </si>
-  <si>
-    <t>U heeft **{{accuracy}}%** van de emoties correct herkend.</t>
-  </si>
-  <si>
-    <t>boos</t>
-  </si>
-  <si>
-    <t>vrolijk</t>
-  </si>
-  <si>
-    <t>teder</t>
-  </si>
-  <si>
-    <t>verdrietig</t>
-  </si>
-  <si>
-    <t>Vul uw ID in.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uw ID is ongeldig. Probeer het 
-opnieuw. </t>
-  </si>
-  <si>
-    <t>Volgende</t>
-  </si>
-  <si>
-    <t>U heeft de emotieherkenningstaak voltooid.</t>
-  </si>
-  <si>
-    <t>Emotieherkenningstaak</t>
-  </si>
-  <si>
-    <t>U heeft {{num_correct}} van de {{num_question}} vragen correct beantwoord.</t>
-  </si>
-  <si>
-    <t>Uw score</t>
-  </si>
-  <si>
     <t>Willkommen zum MSAT</t>
   </si>
   <si>
     <t>Welcome to the MSAT</t>
   </si>
   <si>
-    <t>Einleitungstext DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Intro EN</t>
+    <t xml:space="preserve">Bitte wählen Sie (Ja) oder (Nein), je nachdem, ob Sie das einzelne Zielinstrument in der Mixtur gehört haben oder nicht. Wenn Sie sich nicht sicher sind, nehmen Sie die Antwort, die Sie für richtig halten. </t>
+  </si>
+  <si>
+    <t>Du hast den Test zur musikalischen Szenenanalyse erfolgreich beendet.</t>
+  </si>
+  <si>
+    <t>Musikalische Szenenanalyse Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the experiment, you will be presented with various music excerpts. Each music excerpt consists of two parts. In the first part a single instrument (voice or bass) plays, in the second part a mixture of several instruments (mixture). 
+Your task is to decide whether the single target instrument played in the mixture of instruments. 
+Click "Yes" for "Yes - the target instrument played in the mixture" and "No" for "No - the target instrument did not play in the mixture".
+</t>
+  </si>
+  <si>
+    <t>In diesem Test werden Ihnen verschiedene Musikausschnitte dargeboten. Jeder Musikausschnitt besteht aus zwei Teilen. Im ersten Teil spielt ein einzelnes Instrument (Stimme oder Bass), im zweiten Teil eine Mischung aus mehreren Instrumenten (Mixtur). 
+Ihre Aufgabe ist es zu entscheiden, ob das einzelne Zielinstrument in der Instrumentenmischung gespielt hat. 
+Klicken Sie auf "Ja" für "Ja - das Zielinstrument spielte in der Mixtur" und auf "Nein" für "Nein - das Zielinstrument spielte nicht in der Mixtur".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please select (Yes) or (No) depending on whether you heard the single target instrument in the mixture or not. If you are not sure, take the answer you think is correct. </t>
+  </si>
+  <si>
+    <t>Musical Scene Analysis Test</t>
+  </si>
+  <si>
+    <t>You have completed the Musical Scene Analysis test.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -394,19 +249,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,16 +275,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>23906</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -463,7 +310,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -782,20 +629,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
     <col min="2" max="2" width="112.140625" customWidth="1"/>
-    <col min="5" max="5" width="50.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -805,351 +651,225 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>40</v>
       </c>
-      <c r="D4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
         <v>50</v>
       </c>
-      <c r="D14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
         <v>51</v>
       </c>
-      <c r="D15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
         <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/data_raw/MSAT_dict.xlsx
+++ b/data_raw/MSAT_dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hake Home PC\Dropbox\Uni Oldenburg\#3 - RStudio dateien\#4 - MSAT - main test R script\MSA\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B39657F-6D4D-46A0-8B49-EEE3AE680181}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFD0BDF-6BC8-406D-BF3C-6F11D19ACE29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30195" yWindow="300" windowWidth="14190" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EDT" sheetId="1" r:id="rId1"/>
@@ -103,9 +103,6 @@
     <t>Herzlichen Glückwunsch!</t>
   </si>
   <si>
-    <t>Du hast **{{accuracy}} %** der Emotionen richtig erkannt.</t>
-  </si>
-  <si>
     <t>wütender</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
   </si>
   <si>
     <t>Congratulations!</t>
-  </si>
-  <si>
-    <t>You recognized **{{accuracy}} %**  of the emotions correctly.</t>
   </si>
   <si>
     <t>angrier</t>
@@ -214,6 +208,12 @@
   </si>
   <si>
     <t>You have completed the Musical Scene Analysis test.</t>
+  </si>
+  <si>
+    <t>Du hast **{{accuracy}} %** der Musikinstrumente richtig erkannt.</t>
+  </si>
+  <si>
+    <t>You recognized **{{accuracy}} %**  of the music excerpts correctly.</t>
   </si>
 </sst>
 </file>
@@ -310,7 +310,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -632,7 +632,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A11" sqref="A11:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,10 +657,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -668,10 +668,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -682,7 +682,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -693,7 +693,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -701,10 +701,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -715,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -726,7 +726,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -734,10 +734,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -745,10 +745,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -756,10 +756,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,10 +767,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -778,10 +778,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -789,10 +789,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -800,10 +800,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -811,10 +811,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -822,10 +822,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -833,10 +833,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -844,10 +844,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -855,10 +855,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -866,10 +866,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
